--- a/my_test.xlsx
+++ b/my_test.xlsx
@@ -7,8 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="favorites" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="what_does_it_mean" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,19 +29,6 @@
       <b val="1"/>
       <color rgb="FF666666"/>
       <sz val="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Helvetica"/>
-      <b val="1"/>
-      <sz val="14"/>
     </font>
   </fonts>
   <fills count="4">
@@ -93,18 +78,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +465,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -496,35 +476,31 @@
     <col width="17.109375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>books</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>ISBNs</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>ratings (x/5)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>the great gatsby</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>f. scott fitzgerald</t>
         </is>
@@ -532,19 +508,15 @@
       <c r="C2" s="3" t="n">
         <v>743273567</v>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="D2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>harry potter and the prisoner of azkaban</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>j.k. rowling</t>
         </is>
@@ -559,12 +531,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>the bell jar</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>sylvia plath</t>
         </is>
@@ -579,12 +551,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>slaughterhouse five</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>kurt vonnegut</t>
         </is>
@@ -599,12 +571,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>TFiOS</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>john green</t>
         </is>
@@ -621,12 +593,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>looking for alaska</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>john green</t>
         </is>
@@ -641,12 +613,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>turtles all the way down</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>john green</t>
         </is>
@@ -661,12 +633,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>wild</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>cheryl strayed</t>
         </is>
@@ -681,12 +653,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>divergent</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>veronica roth</t>
         </is>
@@ -701,18 +673,18 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>gone girl</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>gillian flynn</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>385486804</v>
+      <c r="C11" s="3" t="n">
+        <v>1285159454</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
@@ -721,18 +693,18 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>where'd you go, bernadette</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>maria semple</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>385486804</v>
+      <c r="C12" s="3" t="n">
+        <v>1285159454</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
@@ -741,12 +713,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>fangirl</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>rainbow rowell</t>
         </is>
@@ -761,12 +733,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>eleanor + park</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>rainbow rowell</t>
         </is>
@@ -781,12 +753,12 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>it's kind of a funny story</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>nad vizzini</t>
         </is>
@@ -822,142 +794,11 @@
     </row>
     <row r="17">
       <c r="C17" s="3" t="n">
-        <v>439136350</v>
+        <v>1285159454</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="34.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12.21875" bestFit="1" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>fave books</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>fave authors</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>the great gatsby</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>john green</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>harry potter and the prisoner of azkaban</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>kurt vonnegut</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TFiOS</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>maria semple</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>the bell jar</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>slaughterhouse five</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>looking for alaska</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>KEY:</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>favorite books</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>favorite authors</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>